--- a/business/Module6_Gantt_Chart.xlsx
+++ b/business/Module6_Gantt_Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graduate\Desktop\TeamWork\c1.1\BusinessFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graduate\Desktop\New folder\c1.1\BusinessFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -951,6 +951,16 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -965,16 +975,6 @@
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -992,7 +992,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1329,15 +1359,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1757,29 +1787,31 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="100" width="2.5546875" customWidth="1"/>
-    <col min="101" max="101" width="2.5546875" style="69" customWidth="1"/>
-    <col min="102" max="117" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="94" width="2.5703125" customWidth="1"/>
+    <col min="95" max="95" width="2.5703125" style="69" customWidth="1"/>
+    <col min="96" max="100" width="2.5703125" customWidth="1"/>
+    <col min="101" max="101" width="2.5703125" style="69" customWidth="1"/>
+    <col min="102" max="117" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
@@ -1798,8 +1830,9 @@
       <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="CW1"/>
     </row>
-    <row r="2" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
@@ -1809,206 +1842,208 @@
       <c r="M2" s="42" t="s">
         <v>17</v>
       </c>
+      <c r="CW2"/>
     </row>
-    <row r="3" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="75">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="79">
         <v>43311</v>
       </c>
-      <c r="J3" s="76"/>
+      <c r="J3" s="80"/>
+      <c r="CW3"/>
     </row>
-    <row r="4" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="40"/>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="60">
         <v>1</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="76">
         <f>M5</f>
         <v>43311</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="72">
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="76">
         <f>T5</f>
         <v>43318</v>
       </c>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="72">
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76">
         <f>AA5</f>
         <v>43325</v>
       </c>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="72">
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="76">
         <f>AH5</f>
         <v>43332</v>
       </c>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="72">
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="76">
         <f>AO5</f>
         <v>43339</v>
       </c>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="72">
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="76">
         <f>AV5</f>
         <v>43346</v>
       </c>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="72">
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="76">
         <f>BC5</f>
         <v>43353</v>
       </c>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="72">
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="76">
         <f>BJ5</f>
         <v>43360</v>
       </c>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="73"/>
-      <c r="BP4" s="74"/>
-      <c r="BQ4" s="72">
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="77"/>
+      <c r="BM4" s="77"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="76">
         <f>BQ5</f>
         <v>43367</v>
       </c>
-      <c r="BR4" s="73"/>
-      <c r="BS4" s="73"/>
-      <c r="BT4" s="73"/>
-      <c r="BU4" s="73"/>
-      <c r="BV4" s="73"/>
-      <c r="BW4" s="74"/>
-      <c r="BX4" s="72">
+      <c r="BR4" s="77"/>
+      <c r="BS4" s="77"/>
+      <c r="BT4" s="77"/>
+      <c r="BU4" s="77"/>
+      <c r="BV4" s="77"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="76">
         <f>BX5</f>
         <v>43374</v>
       </c>
-      <c r="BY4" s="73"/>
-      <c r="BZ4" s="73"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="73"/>
-      <c r="CC4" s="73"/>
-      <c r="CD4" s="74"/>
-      <c r="CE4" s="72">
+      <c r="BY4" s="77"/>
+      <c r="BZ4" s="77"/>
+      <c r="CA4" s="77"/>
+      <c r="CB4" s="77"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="78"/>
+      <c r="CE4" s="76">
         <f>CE5</f>
         <v>43381</v>
       </c>
-      <c r="CF4" s="73"/>
-      <c r="CG4" s="73"/>
-      <c r="CH4" s="73"/>
-      <c r="CI4" s="73"/>
-      <c r="CJ4" s="73"/>
-      <c r="CK4" s="74"/>
-      <c r="CL4" s="72">
+      <c r="CF4" s="77"/>
+      <c r="CG4" s="77"/>
+      <c r="CH4" s="77"/>
+      <c r="CI4" s="77"/>
+      <c r="CJ4" s="77"/>
+      <c r="CK4" s="78"/>
+      <c r="CL4" s="76">
         <f>CL5</f>
         <v>43388</v>
       </c>
-      <c r="CM4" s="73"/>
-      <c r="CN4" s="73"/>
-      <c r="CO4" s="73"/>
-      <c r="CP4" s="73"/>
-      <c r="CQ4" s="73"/>
-      <c r="CR4" s="74"/>
-      <c r="CS4" s="72">
+      <c r="CM4" s="77"/>
+      <c r="CN4" s="77"/>
+      <c r="CO4" s="77"/>
+      <c r="CP4" s="77"/>
+      <c r="CQ4" s="77"/>
+      <c r="CR4" s="78"/>
+      <c r="CS4" s="76">
         <f>CS5</f>
         <v>43395</v>
       </c>
-      <c r="CT4" s="73"/>
-      <c r="CU4" s="73"/>
-      <c r="CV4" s="73"/>
-      <c r="CW4" s="73"/>
-      <c r="CX4" s="73"/>
-      <c r="CY4" s="74"/>
-      <c r="CZ4" s="72">
+      <c r="CT4" s="77"/>
+      <c r="CU4" s="77"/>
+      <c r="CV4" s="77"/>
+      <c r="CW4" s="77"/>
+      <c r="CX4" s="77"/>
+      <c r="CY4" s="78"/>
+      <c r="CZ4" s="76">
         <f>CZ5</f>
         <v>43402</v>
       </c>
-      <c r="DA4" s="73"/>
-      <c r="DB4" s="73"/>
-      <c r="DC4" s="73"/>
-      <c r="DD4" s="73"/>
-      <c r="DE4" s="73"/>
-      <c r="DF4" s="74"/>
-      <c r="DG4" s="72">
+      <c r="DA4" s="77"/>
+      <c r="DB4" s="77"/>
+      <c r="DC4" s="77"/>
+      <c r="DD4" s="77"/>
+      <c r="DE4" s="77"/>
+      <c r="DF4" s="78"/>
+      <c r="DG4" s="76">
         <f>DG5</f>
         <v>43409</v>
       </c>
-      <c r="DH4" s="73"/>
-      <c r="DI4" s="73"/>
-      <c r="DJ4" s="73"/>
-      <c r="DK4" s="73"/>
-      <c r="DL4" s="73"/>
-      <c r="DM4" s="74"/>
+      <c r="DH4" s="77"/>
+      <c r="DI4" s="77"/>
+      <c r="DJ4" s="77"/>
+      <c r="DK4" s="77"/>
+      <c r="DL4" s="77"/>
+      <c r="DM4" s="78"/>
     </row>
-    <row r="5" spans="1:117" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:117" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
       <c r="M5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43311</v>
@@ -2334,15 +2369,15 @@
         <v>43391</v>
       </c>
       <c r="CP5" s="9">
-        <f t="shared" ref="CP5" si="20">CO5+1</f>
+        <f t="shared" ref="CP5:CQ5" si="20">CO5+1</f>
         <v>43392</v>
       </c>
-      <c r="CQ5" s="9">
-        <f t="shared" ref="CQ5" si="21">CP5+1</f>
+      <c r="CQ5" s="70">
+        <f t="shared" si="20"/>
         <v>43393</v>
       </c>
       <c r="CR5" s="11">
-        <f t="shared" ref="CR5" si="22">CQ5+1</f>
+        <f t="shared" ref="CR5" si="21">CQ5+1</f>
         <v>43394</v>
       </c>
       <c r="CS5" s="10">
@@ -2354,23 +2389,23 @@
         <v>43396</v>
       </c>
       <c r="CU5" s="9">
-        <f t="shared" ref="CU5" si="23">CT5+1</f>
+        <f t="shared" ref="CU5" si="22">CT5+1</f>
         <v>43397</v>
       </c>
       <c r="CV5" s="9">
-        <f t="shared" ref="CV5" si="24">CU5+1</f>
+        <f t="shared" ref="CV5" si="23">CU5+1</f>
         <v>43398</v>
       </c>
-      <c r="CW5" s="70">
-        <f t="shared" ref="CW5" si="25">CV5+1</f>
+      <c r="CW5" s="9">
+        <f t="shared" ref="CW5:CX5" si="24">CV5+1</f>
         <v>43399</v>
       </c>
       <c r="CX5" s="9">
-        <f t="shared" ref="CX5" si="26">CW5+1</f>
+        <f t="shared" si="24"/>
         <v>43400</v>
       </c>
       <c r="CY5" s="11">
-        <f t="shared" ref="CY5" si="27">CX5+1</f>
+        <f t="shared" ref="CY5" si="25">CX5+1</f>
         <v>43401</v>
       </c>
       <c r="CZ5" s="10">
@@ -2382,23 +2417,23 @@
         <v>43403</v>
       </c>
       <c r="DB5" s="9">
-        <f t="shared" ref="DB5" si="28">DA5+1</f>
+        <f t="shared" ref="DB5" si="26">DA5+1</f>
         <v>43404</v>
       </c>
       <c r="DC5" s="9">
-        <f t="shared" ref="DC5" si="29">DB5+1</f>
+        <f t="shared" ref="DC5" si="27">DB5+1</f>
         <v>43405</v>
       </c>
       <c r="DD5" s="9">
-        <f t="shared" ref="DD5" si="30">DC5+1</f>
+        <f t="shared" ref="DD5" si="28">DC5+1</f>
         <v>43406</v>
       </c>
       <c r="DE5" s="9">
-        <f t="shared" ref="DE5" si="31">DD5+1</f>
+        <f t="shared" ref="DE5" si="29">DD5+1</f>
         <v>43407</v>
       </c>
       <c r="DF5" s="11">
-        <f t="shared" ref="DF5" si="32">DE5+1</f>
+        <f t="shared" ref="DF5" si="30">DE5+1</f>
         <v>43408</v>
       </c>
       <c r="DG5" s="10">
@@ -2410,27 +2445,27 @@
         <v>43410</v>
       </c>
       <c r="DI5" s="9">
-        <f t="shared" ref="DI5" si="33">DH5+1</f>
+        <f t="shared" ref="DI5" si="31">DH5+1</f>
         <v>43411</v>
       </c>
       <c r="DJ5" s="9">
-        <f t="shared" ref="DJ5" si="34">DI5+1</f>
+        <f t="shared" ref="DJ5" si="32">DI5+1</f>
         <v>43412</v>
       </c>
       <c r="DK5" s="9">
-        <f t="shared" ref="DK5" si="35">DJ5+1</f>
+        <f t="shared" ref="DK5" si="33">DJ5+1</f>
         <v>43413</v>
       </c>
       <c r="DL5" s="9">
-        <f t="shared" ref="DL5" si="36">DK5+1</f>
+        <f t="shared" ref="DL5" si="34">DK5+1</f>
         <v>43414</v>
       </c>
       <c r="DM5" s="11">
-        <f t="shared" ref="DM5" si="37">DL5+1</f>
+        <f t="shared" ref="DM5" si="35">DL5+1</f>
         <v>43415</v>
       </c>
     </row>
-    <row r="6" spans="1:117" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:117" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>35</v>
       </c>
@@ -2711,9 +2746,7 @@
       <c r="CP6" s="12">
         <v>82</v>
       </c>
-      <c r="CQ6" s="12">
-        <v>83</v>
-      </c>
+      <c r="CQ6" s="71"/>
       <c r="CR6" s="12">
         <v>84</v>
       </c>
@@ -2729,7 +2762,7 @@
       <c r="CV6" s="12">
         <v>88</v>
       </c>
-      <c r="CW6" s="71"/>
+      <c r="CW6" s="12"/>
       <c r="CX6" s="12"/>
       <c r="CY6" s="12"/>
       <c r="CZ6" s="12"/>
@@ -2747,7 +2780,7 @@
       <c r="DL6" s="12"/>
       <c r="DM6" s="12"/>
     </row>
-    <row r="7" spans="1:117" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:117" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>30</v>
       </c>
@@ -2842,7 +2875,7 @@
       <c r="CN7" s="23"/>
       <c r="CO7" s="23"/>
       <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
+      <c r="CQ7" s="67"/>
       <c r="CR7" s="23"/>
       <c r="CS7" s="23"/>
       <c r="CT7" s="23"/>
@@ -2866,7 +2899,7 @@
       <c r="DL7" s="23"/>
       <c r="DM7" s="23"/>
     </row>
-    <row r="8" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>36</v>
       </c>
@@ -2880,7 +2913,6 @@
         <v>68</v>
       </c>
       <c r="E8" s="53">
-        <f>F8+G8</f>
         <v>1</v>
       </c>
       <c r="F8" s="53">
@@ -2895,12 +2927,12 @@
         <v>43311</v>
       </c>
       <c r="J8" s="55">
-        <f t="shared" ref="J8:J21" si="38">I8+E8-1</f>
+        <f t="shared" ref="J8:J21" si="36">I8+E8-1</f>
         <v>43311</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15">
-        <f t="shared" ref="L8:L23" si="39">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="L8:L23" si="37">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
       <c r="M8" s="23"/>
@@ -2985,13 +3017,13 @@
       <c r="CN8" s="23"/>
       <c r="CO8" s="23"/>
       <c r="CP8" s="23"/>
-      <c r="CQ8" s="23"/>
+      <c r="CQ8" s="67"/>
       <c r="CR8" s="23"/>
       <c r="CS8" s="23"/>
       <c r="CT8" s="23"/>
       <c r="CU8" s="23"/>
       <c r="CV8" s="23"/>
-      <c r="CW8" s="67"/>
+      <c r="CW8" s="23"/>
       <c r="CX8" s="23"/>
       <c r="CY8" s="23"/>
       <c r="CZ8" s="23"/>
@@ -3009,7 +3041,7 @@
       <c r="DL8" s="23"/>
       <c r="DM8" s="23"/>
     </row>
-    <row r="9" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>37</v>
       </c>
@@ -3023,7 +3055,7 @@
         <v>51</v>
       </c>
       <c r="E9" s="53">
-        <f t="shared" ref="E9:E21" si="40">F9+G9</f>
+        <f t="shared" ref="E9:E21" si="38">F9+G9</f>
         <v>5</v>
       </c>
       <c r="F9" s="54">
@@ -3038,12 +3070,12 @@
         <v>43312</v>
       </c>
       <c r="J9" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43316</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="M9" s="23"/>
@@ -3128,13 +3160,13 @@
       <c r="CN9" s="23"/>
       <c r="CO9" s="23"/>
       <c r="CP9" s="23"/>
-      <c r="CQ9" s="23"/>
+      <c r="CQ9" s="67"/>
       <c r="CR9" s="23"/>
       <c r="CS9" s="23"/>
       <c r="CT9" s="23"/>
       <c r="CU9" s="23"/>
       <c r="CV9" s="23"/>
-      <c r="CW9" s="67"/>
+      <c r="CW9" s="23"/>
       <c r="CX9" s="23"/>
       <c r="CY9" s="23"/>
       <c r="CZ9" s="23"/>
@@ -3152,7 +3184,7 @@
       <c r="DL9" s="23"/>
       <c r="DM9" s="23"/>
     </row>
-    <row r="10" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="58" t="s">
         <v>53</v>
@@ -3164,7 +3196,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="F10" s="47">
@@ -3179,12 +3211,12 @@
         <v>43312</v>
       </c>
       <c r="J10" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43314</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="M10" s="23"/>
@@ -3269,13 +3301,13 @@
       <c r="CN10" s="23"/>
       <c r="CO10" s="23"/>
       <c r="CP10" s="23"/>
-      <c r="CQ10" s="23"/>
+      <c r="CQ10" s="67"/>
       <c r="CR10" s="23"/>
       <c r="CS10" s="23"/>
       <c r="CT10" s="23"/>
       <c r="CU10" s="23"/>
       <c r="CV10" s="23"/>
-      <c r="CW10" s="67"/>
+      <c r="CW10" s="23"/>
       <c r="CX10" s="23"/>
       <c r="CY10" s="23"/>
       <c r="CZ10" s="23"/>
@@ -3293,7 +3325,7 @@
       <c r="DL10" s="23"/>
       <c r="DM10" s="23"/>
     </row>
-    <row r="11" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="58" t="s">
         <v>59</v>
@@ -3305,7 +3337,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="F11" s="47">
@@ -3320,12 +3352,12 @@
         <v>43317</v>
       </c>
       <c r="J11" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43322</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="M11" s="23"/>
@@ -3410,13 +3442,13 @@
       <c r="CN11" s="23"/>
       <c r="CO11" s="23"/>
       <c r="CP11" s="23"/>
-      <c r="CQ11" s="23"/>
+      <c r="CQ11" s="67"/>
       <c r="CR11" s="23"/>
       <c r="CS11" s="23"/>
       <c r="CT11" s="23"/>
       <c r="CU11" s="23"/>
       <c r="CV11" s="23"/>
-      <c r="CW11" s="67"/>
+      <c r="CW11" s="23"/>
       <c r="CX11" s="23"/>
       <c r="CY11" s="23"/>
       <c r="CZ11" s="23"/>
@@ -3434,7 +3466,7 @@
       <c r="DL11" s="23"/>
       <c r="DM11" s="23"/>
     </row>
-    <row r="12" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="58" t="s">
         <v>60</v>
@@ -3446,7 +3478,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="F12" s="47">
@@ -3461,12 +3493,12 @@
         <v>43315</v>
       </c>
       <c r="J12" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43325</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="M12" s="23"/>
@@ -3551,13 +3583,13 @@
       <c r="CN12" s="23"/>
       <c r="CO12" s="23"/>
       <c r="CP12" s="23"/>
-      <c r="CQ12" s="23"/>
+      <c r="CQ12" s="67"/>
       <c r="CR12" s="23"/>
       <c r="CS12" s="23"/>
       <c r="CT12" s="23"/>
       <c r="CU12" s="23"/>
       <c r="CV12" s="23"/>
-      <c r="CW12" s="67"/>
+      <c r="CW12" s="23"/>
       <c r="CX12" s="23"/>
       <c r="CY12" s="23"/>
       <c r="CZ12" s="23"/>
@@ -3575,7 +3607,7 @@
       <c r="DL12" s="23"/>
       <c r="DM12" s="23"/>
     </row>
-    <row r="13" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>38</v>
       </c>
@@ -3589,7 +3621,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="F13" s="49">
@@ -3604,12 +3636,12 @@
         <v>43326</v>
       </c>
       <c r="J13" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43329</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="M13" s="23"/>
@@ -3694,13 +3726,13 @@
       <c r="CN13" s="23"/>
       <c r="CO13" s="23"/>
       <c r="CP13" s="23"/>
-      <c r="CQ13" s="23"/>
+      <c r="CQ13" s="67"/>
       <c r="CR13" s="23"/>
       <c r="CS13" s="23"/>
       <c r="CT13" s="23"/>
       <c r="CU13" s="23"/>
       <c r="CV13" s="23"/>
-      <c r="CW13" s="67"/>
+      <c r="CW13" s="23"/>
       <c r="CX13" s="23"/>
       <c r="CY13" s="23"/>
       <c r="CZ13" s="23"/>
@@ -3718,7 +3750,7 @@
       <c r="DL13" s="23"/>
       <c r="DM13" s="23"/>
     </row>
-    <row r="14" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="58" t="s">
         <v>56</v>
@@ -3730,7 +3762,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="F14" s="49">
@@ -3745,12 +3777,12 @@
         <v>43330</v>
       </c>
       <c r="J14" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43331</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="M14" s="23"/>
@@ -3835,13 +3867,13 @@
       <c r="CN14" s="23"/>
       <c r="CO14" s="23"/>
       <c r="CP14" s="23"/>
-      <c r="CQ14" s="23"/>
+      <c r="CQ14" s="67"/>
       <c r="CR14" s="23"/>
       <c r="CS14" s="23"/>
       <c r="CT14" s="23"/>
       <c r="CU14" s="23"/>
       <c r="CV14" s="23"/>
-      <c r="CW14" s="67"/>
+      <c r="CW14" s="23"/>
       <c r="CX14" s="23"/>
       <c r="CY14" s="23"/>
       <c r="CZ14" s="23"/>
@@ -3859,19 +3891,19 @@
       <c r="DL14" s="23"/>
       <c r="DM14" s="23"/>
     </row>
-    <row r="15" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="72" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="F15" s="49">
@@ -3886,12 +3918,12 @@
         <v>43332</v>
       </c>
       <c r="J15" s="55">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>43338</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="M15" s="23"/>
@@ -3976,13 +4008,13 @@
       <c r="CN15" s="23"/>
       <c r="CO15" s="23"/>
       <c r="CP15" s="23"/>
-      <c r="CQ15" s="23"/>
+      <c r="CQ15" s="67"/>
       <c r="CR15" s="23"/>
       <c r="CS15" s="23"/>
       <c r="CT15" s="23"/>
       <c r="CU15" s="23"/>
       <c r="CV15" s="23"/>
-      <c r="CW15" s="67"/>
+      <c r="CW15" s="23"/>
       <c r="CX15" s="23"/>
       <c r="CY15" s="23"/>
       <c r="CZ15" s="23"/>
@@ -4000,7 +4032,7 @@
       <c r="DL15" s="23"/>
       <c r="DM15" s="23"/>
     </row>
-    <row r="16" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="58" t="s">
         <v>62</v>
@@ -4012,8 +4044,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="53">
-        <f t="shared" si="40"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="49">
         <v>1</v>
@@ -4027,13 +4058,13 @@
         <v>43338</v>
       </c>
       <c r="J16" s="55">
-        <f t="shared" si="38"/>
-        <v>43340</v>
+        <f t="shared" si="36"/>
+        <v>43339</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15">
-        <f t="shared" si="39"/>
-        <v>3</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
@@ -4117,13 +4148,13 @@
       <c r="CN16" s="23"/>
       <c r="CO16" s="23"/>
       <c r="CP16" s="23"/>
-      <c r="CQ16" s="23"/>
+      <c r="CQ16" s="67"/>
       <c r="CR16" s="23"/>
       <c r="CS16" s="23"/>
       <c r="CT16" s="23"/>
       <c r="CU16" s="23"/>
       <c r="CV16" s="23"/>
-      <c r="CW16" s="67"/>
+      <c r="CW16" s="23"/>
       <c r="CX16" s="23"/>
       <c r="CY16" s="23"/>
       <c r="CZ16" s="23"/>
@@ -4141,7 +4172,7 @@
       <c r="DL16" s="23"/>
       <c r="DM16" s="23"/>
     </row>
-    <row r="17" spans="1:117" s="3" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:117" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="58" t="s">
         <v>57</v>
@@ -4153,8 +4184,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="53">
-        <f t="shared" si="40"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="49">
         <v>1</v>
@@ -4165,16 +4195,16 @@
       <c r="H17" s="50"/>
       <c r="I17" s="57">
         <f>IF(D17="A",J8+1,IF(D17="B",J9+1,IF(D17="C",J10+1,IF(D17="D",J11+1,IF(D17="D &amp; E",J12+1,IF(D17="F",J13+1,IF(D17="G",J14+1,IF(D17="H",J15+1,IF(D17="H &amp; I",J16+1,"Error")))))))))-1*F17</f>
-        <v>43340</v>
+        <v>43339</v>
       </c>
       <c r="J17" s="55">
-        <f t="shared" si="38"/>
-        <v>43344</v>
+        <f t="shared" si="36"/>
+        <v>43342</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15">
-        <f t="shared" si="39"/>
-        <v>5</v>
+        <f t="shared" si="37"/>
+        <v>4</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
@@ -4258,13 +4288,13 @@
       <c r="CN17" s="23"/>
       <c r="CO17" s="23"/>
       <c r="CP17" s="23"/>
-      <c r="CQ17" s="23"/>
+      <c r="CQ17" s="67"/>
       <c r="CR17" s="23"/>
       <c r="CS17" s="23"/>
       <c r="CT17" s="23"/>
       <c r="CU17" s="23"/>
       <c r="CV17" s="23"/>
-      <c r="CW17" s="67"/>
+      <c r="CW17" s="23"/>
       <c r="CX17" s="23"/>
       <c r="CY17" s="23"/>
       <c r="CZ17" s="23"/>
@@ -4282,19 +4312,19 @@
       <c r="DL17" s="23"/>
       <c r="DM17" s="23"/>
     </row>
-    <row r="18" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="72" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="F18" s="49">
@@ -4306,15 +4336,15 @@
       <c r="H18" s="50"/>
       <c r="I18" s="57">
         <f>IF(D18="A",J8+1,IF(D18="B",J9+1,IF(D18="C",J10+1,IF(D18="D",J11+1,IF(D18="D &amp; E",J12+1,IF(D18="F",J13+1,IF(D18="G",J14+1,IF(D18="H",J15+1,IF(D18="H &amp; I",J16+1,IF(D18="J",J17+1,"Error"))))))))))-1*F18</f>
-        <v>43345</v>
+        <v>43343</v>
       </c>
       <c r="J18" s="55">
-        <f t="shared" si="38"/>
-        <v>43346</v>
+        <f t="shared" si="36"/>
+        <v>43344</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="M18" s="23"/>
@@ -4399,13 +4429,13 @@
       <c r="CN18" s="23"/>
       <c r="CO18" s="23"/>
       <c r="CP18" s="23"/>
-      <c r="CQ18" s="23"/>
+      <c r="CQ18" s="67"/>
       <c r="CR18" s="23"/>
       <c r="CS18" s="23"/>
       <c r="CT18" s="23"/>
       <c r="CU18" s="23"/>
       <c r="CV18" s="23"/>
-      <c r="CW18" s="67"/>
+      <c r="CW18" s="23"/>
       <c r="CX18" s="23"/>
       <c r="CY18" s="23"/>
       <c r="CZ18" s="23"/>
@@ -4423,21 +4453,21 @@
       <c r="DL18" s="23"/>
       <c r="DM18" s="23"/>
     </row>
-    <row r="19" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="72" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>35</v>
       </c>
       <c r="F19" s="49">
@@ -4449,15 +4479,15 @@
       <c r="H19" s="50"/>
       <c r="I19" s="56">
         <f>IF(D19="A",J8+1,IF(D19="B",J9+1,IF(D19="C",J10+1,IF(D19="D",J11+1,IF(D19="D &amp; E",J12+1,IF(D19="F",J13+1,IF(D19="G",J14+1,IF(D19="H",J15+1,IF(D19="H &amp; I",J16+1,IF(D19="J",J17+1,IF(D19="K",J18+1,"Error")))))))))))-1*F19</f>
-        <v>43345</v>
+        <v>43343</v>
       </c>
       <c r="J19" s="55">
-        <f t="shared" si="38"/>
-        <v>43379</v>
+        <f t="shared" si="36"/>
+        <v>43377</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>35</v>
       </c>
       <c r="M19" s="23"/>
@@ -4542,13 +4572,13 @@
       <c r="CN19" s="23"/>
       <c r="CO19" s="23"/>
       <c r="CP19" s="23"/>
-      <c r="CQ19" s="23"/>
+      <c r="CQ19" s="67"/>
       <c r="CR19" s="23"/>
       <c r="CS19" s="23"/>
       <c r="CT19" s="23"/>
       <c r="CU19" s="23"/>
       <c r="CV19" s="23"/>
-      <c r="CW19" s="67"/>
+      <c r="CW19" s="23"/>
       <c r="CX19" s="23"/>
       <c r="CY19" s="23"/>
       <c r="CZ19" s="23"/>
@@ -4566,19 +4596,19 @@
       <c r="DL19" s="23"/>
       <c r="DM19" s="23"/>
     </row>
-    <row r="20" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="72" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="F20" s="49">
@@ -4590,15 +4620,15 @@
       <c r="H20" s="50"/>
       <c r="I20" s="57">
         <f>IF(D20="A",J8+1,IF(D20="B",J9+1,IF(D20="C",J10+1,IF(D20="D",J11+1,IF(D20="D &amp; E",J12+1,IF(D20="F",J13+1,IF(D20="G",J14+1,IF(D20="H",J15+1,IF(D20="H &amp; I",J16+1,IF(D20="J",J17+1,IF(D20="K",J18+1,IF(D20="K &amp; L",J19+1,"Error"))))))))))))-1*F20</f>
-        <v>43380</v>
+        <v>43378</v>
       </c>
       <c r="J20" s="55">
-        <f t="shared" si="38"/>
-        <v>43391</v>
+        <f t="shared" si="36"/>
+        <v>43389</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="M20" s="23"/>
@@ -4683,13 +4713,13 @@
       <c r="CN20" s="23"/>
       <c r="CO20" s="23"/>
       <c r="CP20" s="23"/>
-      <c r="CQ20" s="23"/>
+      <c r="CQ20" s="67"/>
       <c r="CR20" s="23"/>
       <c r="CS20" s="23"/>
       <c r="CT20" s="23"/>
       <c r="CU20" s="23"/>
       <c r="CV20" s="23"/>
-      <c r="CW20" s="67"/>
+      <c r="CW20" s="23"/>
       <c r="CX20" s="23"/>
       <c r="CY20" s="23"/>
       <c r="CZ20" s="23"/>
@@ -4707,7 +4737,7 @@
       <c r="DL20" s="23"/>
       <c r="DM20" s="23"/>
     </row>
-    <row r="21" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="58" t="s">
         <v>66</v>
@@ -4719,8 +4749,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="53">
-        <f t="shared" si="40"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F21" s="49">
         <v>4</v>
@@ -4731,16 +4760,16 @@
       <c r="H21" s="50"/>
       <c r="I21" s="57">
         <f>IF(D21="A",J8+1,IF(D21="B",J9+1,IF(D21="C",J10+1,IF(D21="D",J11+1,IF(D21="D &amp; E",J12+1,IF(D21="F",J13+1,IF(D21="G",J14+1,IF(D21="H",J15+1,IF(D21="H &amp; I",J16+1,IF(D21="J",J17+1,IF(D21="K",J18+1,IF(D21="K &amp; L",J19+1,IF(D21="M",J20+1,"Error")))))))))))))-F21</f>
-        <v>43388</v>
+        <v>43386</v>
       </c>
       <c r="J21" s="55">
-        <f t="shared" si="38"/>
-        <v>43398</v>
+        <f t="shared" si="36"/>
+        <v>43392</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15">
-        <f t="shared" si="39"/>
-        <v>11</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -4824,13 +4853,13 @@
       <c r="CN21" s="23"/>
       <c r="CO21" s="23"/>
       <c r="CP21" s="23"/>
-      <c r="CQ21" s="23"/>
+      <c r="CQ21" s="67"/>
       <c r="CR21" s="23"/>
       <c r="CS21" s="23"/>
       <c r="CT21" s="23"/>
       <c r="CU21" s="23"/>
       <c r="CV21" s="23"/>
-      <c r="CW21" s="67"/>
+      <c r="CW21" s="23"/>
       <c r="CX21" s="23"/>
       <c r="CY21" s="23"/>
       <c r="CZ21" s="23"/>
@@ -4848,7 +4877,7 @@
       <c r="DL21" s="23"/>
       <c r="DM21" s="23"/>
     </row>
-    <row r="22" spans="1:117" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:117" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>29</v>
       </c>
@@ -4863,7 +4892,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="66"/>
       <c r="L22" s="66" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M22" s="67"/>
@@ -4972,7 +5001,7 @@
       <c r="DL22" s="67"/>
       <c r="DM22" s="67"/>
     </row>
-    <row r="23" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:117" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>28</v>
       </c>
@@ -4989,7 +5018,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M23" s="25"/>
@@ -5074,7 +5103,7 @@
       <c r="CN23" s="25"/>
       <c r="CO23" s="25"/>
       <c r="CP23" s="25"/>
-      <c r="CQ23" s="25"/>
+      <c r="CQ23" s="67"/>
       <c r="CR23" s="25"/>
       <c r="CS23" s="25"/>
       <c r="CT23" s="25"/>
@@ -5098,17 +5127,17 @@
       <c r="DL23" s="25"/>
       <c r="DM23" s="25"/>
     </row>
-    <row r="24" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:117" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -5116,11 +5145,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="AO4:AU4"/>
-    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="CZ4:DF4"/>
+    <mergeCell ref="DG4:DM4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="CS4:CY4"/>
     <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="I3:J3"/>
@@ -5128,16 +5159,14 @@
     <mergeCell ref="T4:Z4"/>
     <mergeCell ref="AA4:AG4"/>
     <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="CZ4:DF4"/>
-    <mergeCell ref="DG4:DM4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CL4:CR4"/>
-    <mergeCell ref="CS4:CY4"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="AV4:BB4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H23">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5150,108 +5179,121 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:BP5 M7:BP23 M6:CV6">
-    <cfRule type="expression" dxfId="23" priority="54">
+  <conditionalFormatting sqref="M5:BP5 M7:BP23 M6:CP6 CR6:CV6">
+    <cfRule type="expression" dxfId="26" priority="57">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:BP23">
-    <cfRule type="expression" dxfId="22" priority="48">
+    <cfRule type="expression" dxfId="25" priority="51">
       <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BW5 BQ7:BW23">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>AND(TODAY()&gt;=BQ$5,TODAY()&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BW23">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>AND(task_start&lt;=BQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=BQ$5,task_start&lt;BR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:CD5 BX7:CD23">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX7:CD23">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;BY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CK5 CE7:CK23">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>AND(TODAY()&gt;=CE$5,TODAY()&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE7:CK23">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(task_start&lt;=CE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=CE$5,task_start&lt;CF$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL5:CR5 CL7:CR23">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="CL5:CP5 CL7:CP23 CR7:CR23 CR5">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND(TODAY()&gt;=CL$5,TODAY()&lt;CM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL7:CR23">
-    <cfRule type="expression" dxfId="10" priority="10">
+  <conditionalFormatting sqref="CL7:CP23 CR7:CR23">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>AND(task_start&lt;=CL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=CL$5,task_start&lt;CM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS5:CY5 CS7:CY23 CW6:CY6">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="CW6:CY6 CS5:CY5 CS7:CY23">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(TODAY()&gt;=CS$5,TODAY()&lt;CT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS7:CY23">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(task_start&lt;=CS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CS$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=CS$5,task_start&lt;CT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ5:DF23">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(TODAY()&gt;=CZ$5,TODAY()&lt;DA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ7:DF23">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(task_start&lt;=CZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CZ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=CZ$5,task_start&lt;DA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG5:DM23">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(TODAY()&gt;=DG$5,TODAY()&lt;DH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG7:DM23">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=DG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DG$5)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DG$5,task_start&lt;DH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CQ5:CQ23">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CQ$5,TODAY()&lt;CR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CQ7:CQ23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=CQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CQ$5)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DG$5,task_start&lt;DH$5)</formula>
+      <formula>AND(task_end&gt;=CQ$5,task_start&lt;CR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5300,88 +5342,88 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="28"/>
+    <col min="1" max="1" width="87.140625" style="32" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
     </row>
-    <row r="2" spans="1:2" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="29"/>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
